--- a/dist/document/dest/2020/10/doctors/202.xlsx
+++ b/dist/document/dest/2020/10/doctors/202.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>135</v>
       </c>
-      <c r="C2" s="1">
-        <v>1009800</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
-        <v>66600</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>80</v>
       </c>
-      <c r="C4" s="1">
-        <v>276000</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>20</v>
       </c>
-      <c r="C5" s="1">
-        <v>80500</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>60</v>
       </c>
-      <c r="C6" s="1">
-        <v>234600</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="1">
-        <v>211500</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="1">
-        <v>57100</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>3</v>
       </c>
-      <c r="C9" s="1">
-        <v>204900</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="1">
-        <v>27500</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="C11" s="1">
-        <v>44000</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -515,7 +485,7 @@
         <v>306</v>
       </c>
       <c r="C12" s="1">
-        <v>2212500</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/202.xlsx
+++ b/dist/document/dest/2020/10/doctors/202.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,98 +399,40 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Bilomag (Ginkgo biloba 80mg)</v>
+        <v>Kogimin (Multivitamine &amp; Minerals)</v>
       </c>
       <c r="B2" s="1">
-        <v>135</v>
+        <v>30</v>
+      </c>
+      <c r="C2" s="1">
+        <v>103500</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Karyuni Collyre (Pirenoxine 0.005%)</v>
+        <v>Refresh Tear 15ML (Natri carboxymethylcellulose 0.5%)</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>70500</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Kogimin (Multivitamine &amp; Minerals)</v>
+        <v>Tổng cộng</v>
       </c>
       <c r="B4" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Philiver (Carduus, vitamin..)</v>
-      </c>
-      <c r="B5" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Proginale (L-Cystine 500mg)</v>
-      </c>
-      <c r="B6" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Refresh Tear 15ML (Natri carboxymethylcellulose 0.5%)</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Sancoba  5ml(Cyanocoblamin 0.02%)</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>Sanlein (Natri hyaluronate 0.1%)</v>
-      </c>
-      <c r="B9" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Syseye (Hypromellose 0.3% 10ml)</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>Tobrex Collyre (Tobramycin 0.3%)</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>Tổng cộng</v>
-      </c>
-      <c r="B12" s="1">
-        <v>306</v>
-      </c>
-      <c r="C12" s="1">
-        <v>NaN</v>
+        <v>31</v>
+      </c>
+      <c r="C4" s="1">
+        <v>174000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
   </ignoredErrors>
 </worksheet>
 </file>